--- a/database/information.xlsx
+++ b/database/information.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="3"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="grade" sheetId="2" r:id="rId2"/>
     <sheet name="course" sheetId="3" r:id="rId3"/>
     <sheet name="course_time" sheetId="4" r:id="rId4"/>
+    <sheet name="teacher" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="219">
   <si>
     <t>学号</t>
   </si>
@@ -64,6 +65,484 @@
     <t>tjpu567</t>
   </si>
   <si>
+    <t xml:space="preserve">1710650101          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈帅军   </t>
+  </si>
+  <si>
+    <t>tjpu001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650102          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">崔文豪   </t>
+  </si>
+  <si>
+    <t>tjpu002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650103          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">何东  </t>
+  </si>
+  <si>
+    <t>tjpu003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650106          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雒瑨  </t>
+  </si>
+  <si>
+    <t>tjpu004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650107          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">盛旭阳   </t>
+  </si>
+  <si>
+    <t>tjpu005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650108          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">汪李辉   </t>
+  </si>
+  <si>
+    <t>tjpu006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650109          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">温知皓   </t>
+  </si>
+  <si>
+    <t>tjpu007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650110          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">庾亮  </t>
+  </si>
+  <si>
+    <t>tjpu008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650111          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">张海韬   </t>
+  </si>
+  <si>
+    <t>tjpu009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650112          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">张上峰   </t>
+  </si>
+  <si>
+    <t>tjpu010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650113          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">张誉  </t>
+  </si>
+  <si>
+    <t>tjpu011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650114          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿里米拉·伊力夏提         </t>
+  </si>
+  <si>
+    <t>tjpu012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650115          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">卜亚迪   </t>
+  </si>
+  <si>
+    <t>tjpu013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650116          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈诗雨   </t>
+  </si>
+  <si>
+    <t>tjpu014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650117          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈婷婷   </t>
+  </si>
+  <si>
+    <t>tjpu015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650118          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈文香   </t>
+  </si>
+  <si>
+    <t>tjpu016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650119          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">段妍  </t>
+  </si>
+  <si>
+    <t>tjpu017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650120          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">冯丹妮   </t>
+  </si>
+  <si>
+    <t>tjpu018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650123          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">李昭瑾   </t>
+  </si>
+  <si>
+    <t>tjpu019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650124          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘畅  </t>
+  </si>
+  <si>
+    <t>tjpu020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650125          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘奕杉   </t>
+  </si>
+  <si>
+    <t>tjpu021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650126          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">盘梦莹   </t>
+  </si>
+  <si>
+    <t>tjpu022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650127          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">谢忆梦   </t>
+  </si>
+  <si>
+    <t>tjpu023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650129          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">张淑唯   </t>
+  </si>
+  <si>
+    <t>tjpu024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710650130          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑红  </t>
+  </si>
+  <si>
+    <t>tjpu025</t>
+  </si>
+  <si>
+    <t>1710650201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曹植沛
+    </t>
+  </si>
+  <si>
+    <t>tjpu026</t>
+  </si>
+  <si>
+    <t>1710650202</t>
+  </si>
+  <si>
+    <t>邓其煜</t>
+  </si>
+  <si>
+    <t>tjpu027</t>
+  </si>
+  <si>
+    <t>1710650203</t>
+  </si>
+  <si>
+    <t>傅泽胜</t>
+  </si>
+  <si>
+    <t>tjpu028</t>
+  </si>
+  <si>
+    <t>1710650204</t>
+  </si>
+  <si>
+    <t>李卓洋</t>
+  </si>
+  <si>
+    <t>tjpu029</t>
+  </si>
+  <si>
+    <t>1710650205</t>
+  </si>
+  <si>
+    <t>刘世琦</t>
+  </si>
+  <si>
+    <t>tjpu030</t>
+  </si>
+  <si>
+    <t>1710650206</t>
+  </si>
+  <si>
+    <t>刘英博</t>
+  </si>
+  <si>
+    <t>tjpu031</t>
+  </si>
+  <si>
+    <t>1710650207</t>
+  </si>
+  <si>
+    <t>斯南都吉</t>
+  </si>
+  <si>
+    <t>tjpu032</t>
+  </si>
+  <si>
+    <t>1710650208</t>
+  </si>
+  <si>
+    <t>王逸秋</t>
+  </si>
+  <si>
+    <t>tjpu033</t>
+  </si>
+  <si>
+    <t>1710650209</t>
+  </si>
+  <si>
+    <t>吴靖康</t>
+  </si>
+  <si>
+    <t>tjpu034</t>
+  </si>
+  <si>
+    <t>1710650211</t>
+  </si>
+  <si>
+    <t>张博</t>
+  </si>
+  <si>
+    <t>tjpu035</t>
+  </si>
+  <si>
+    <t>1710650212</t>
+  </si>
+  <si>
+    <t>张迪</t>
+  </si>
+  <si>
+    <t>tjpu036</t>
+  </si>
+  <si>
+    <t>1710650213</t>
+  </si>
+  <si>
+    <t>张嘉璇</t>
+  </si>
+  <si>
+    <t>tjpu037</t>
+  </si>
+  <si>
+    <t>1710650214</t>
+  </si>
+  <si>
+    <t>陈雪曼</t>
+  </si>
+  <si>
+    <t>tjpu038</t>
+  </si>
+  <si>
+    <t>1710650215</t>
+  </si>
+  <si>
+    <t>房婕</t>
+  </si>
+  <si>
+    <t>tjpu039</t>
+  </si>
+  <si>
+    <t>1710650216</t>
+  </si>
+  <si>
+    <t>兰佳</t>
+  </si>
+  <si>
+    <t>tjpu040</t>
+  </si>
+  <si>
+    <t>1710650217</t>
+  </si>
+  <si>
+    <t>梁雪艳</t>
+  </si>
+  <si>
+    <t>tjpu041</t>
+  </si>
+  <si>
+    <t>1710650219</t>
+  </si>
+  <si>
+    <t>刘彦君</t>
+  </si>
+  <si>
+    <t>tjpu042</t>
+  </si>
+  <si>
+    <t>1710650220</t>
+  </si>
+  <si>
+    <t>刘媛媛</t>
+  </si>
+  <si>
+    <t>tjpu043</t>
+  </si>
+  <si>
+    <t>1710650221</t>
+  </si>
+  <si>
+    <t>马书雅</t>
+  </si>
+  <si>
+    <t>tjpu044</t>
+  </si>
+  <si>
+    <t>1710650222</t>
+  </si>
+  <si>
+    <t>申金灵</t>
+  </si>
+  <si>
+    <t>tjpu045</t>
+  </si>
+  <si>
+    <t>1710650223</t>
+  </si>
+  <si>
+    <t>王旌舒</t>
+  </si>
+  <si>
+    <t>tjpu046</t>
+  </si>
+  <si>
+    <t>1710650224</t>
+  </si>
+  <si>
+    <t>吴桂花</t>
+  </si>
+  <si>
+    <t>tjpu047</t>
+  </si>
+  <si>
+    <t>1710650225</t>
+  </si>
+  <si>
+    <t>熊晶晶</t>
+  </si>
+  <si>
+    <t>tjpu048</t>
+  </si>
+  <si>
+    <t>1710650226</t>
+  </si>
+  <si>
+    <t>杨馨怡</t>
+  </si>
+  <si>
+    <t>tjpu049</t>
+  </si>
+  <si>
+    <t>1710650228</t>
+  </si>
+  <si>
+    <t>赵雅淇</t>
+  </si>
+  <si>
+    <t>tjpu050</t>
+  </si>
+  <si>
+    <t>1710650229</t>
+  </si>
+  <si>
+    <t>周景</t>
+  </si>
+  <si>
+    <t>tjpu051</t>
+  </si>
+  <si>
+    <t>1710650230</t>
+  </si>
+  <si>
+    <t>朱雯婷</t>
+  </si>
+  <si>
+    <t>tjpu052</t>
+  </si>
+  <si>
+    <t>1710660215</t>
+  </si>
+  <si>
+    <t>伍绩威</t>
+  </si>
+  <si>
+    <t>tjpu053</t>
+  </si>
+  <si>
     <t>课程号</t>
   </si>
   <si>
@@ -106,6 +585,12 @@
     <t>系统工程</t>
   </si>
   <si>
+    <t>网络经济学</t>
+  </si>
+  <si>
+    <t>选修</t>
+  </si>
+  <si>
     <t>星期</t>
   </si>
   <si>
@@ -130,7 +615,7 @@
     <t>C319</t>
   </si>
   <si>
-    <t>xxx</t>
+    <t>1-2节</t>
   </si>
   <si>
     <t>空</t>
@@ -148,9 +633,6 @@
     <t>1-16周&gt;&gt;星期四</t>
   </si>
   <si>
-    <t>1-2节</t>
-  </si>
-  <si>
     <t>C305</t>
   </si>
   <si>
@@ -167,19 +649,47 @@
   </si>
   <si>
     <t>C417</t>
+  </si>
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>井彩霞</t>
+  </si>
+  <si>
+    <t>tjpu100</t>
+  </si>
+  <si>
+    <t>吕成功</t>
+  </si>
+  <si>
+    <t>tjpu101</t>
+  </si>
+  <si>
+    <t>赵方方</t>
+  </si>
+  <si>
+    <t>tjpu102</t>
+  </si>
+  <si>
+    <t>吴翠花</t>
+  </si>
+  <si>
+    <t>tjpu103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,10 +698,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF393939"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,7 +726,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +749,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,51 +833,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,22 +854,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -348,19 +864,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,19 +912,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,19 +942,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,73 +966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +990,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,19 +1020,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,10 +1058,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -566,58 +1138,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,15 +1155,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +1163,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,144 +1175,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -808,8 +1327,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1159,106 +1684,1012 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.8833333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>1710650104</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>42979</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>1710650105</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6">
-        <v>42980</v>
+      <c r="E3" s="8">
+        <v>42979</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>1710650122</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6">
-        <v>42981</v>
+      <c r="E4" s="8">
+        <v>42979</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>1710650227</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6">
-        <v>42982</v>
+      <c r="E5" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="8">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="8">
+        <v>42979</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="A6:A58" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1268,7 +2699,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1282,94 +2713,94 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1710650104</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>10610482</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>1710650104</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>10610661</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>1710650104</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>10610672</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>1710650104</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>10610694</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>1710650104</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>10610743</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>1710650104</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>10630652</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>1710650105</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>10610482</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>1710650105</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>10610661</v>
       </c>
       <c r="C9">
@@ -1377,179 +2808,179 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>1710650105</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>10610672</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>1710650105</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>10610694</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>1710650105</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>10610743</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>1710650105</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>10630652</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>1710650122</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>10610482</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>1710650122</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>10610661</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>1710650122</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>10610672</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>1710650122</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>10610694</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>1710650122</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>10610743</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>1710650122</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>10630652</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
         <v>1710650227</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
+      <c r="B20" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
         <v>1710650227</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>10610661</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
         <v>1710650227</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>10610672</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
         <v>1710650227</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>10610694</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
         <v>1710650227</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>10610743</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
         <v>1710650227</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>10630652</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1564,8 +2995,8 @@
   <sheetPr/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1574,31 +3005,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
+      <c r="A1" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="P1" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
         <v>10610482</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1607,18 +3038,18 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="P2" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
         <v>10610661</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1627,18 +3058,18 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="P3" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
         <v>10610672</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1647,18 +3078,18 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="P4" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
         <v>10610694</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1667,18 +3098,18 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="P5" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
         <v>10610743</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1687,18 +3118,18 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="P6" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
         <v>10630652</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1707,17 +3138,31 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="P7" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="A8" s="1">
+        <v>10610382</v>
+      </c>
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1731,8 +3176,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1742,54 +3187,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
+      <c r="A1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
         <v>10610482</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
+      <c r="B2" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>195</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <v>10610661</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
+      <c r="B3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1797,101 +3242,101 @@
         <v>10610672</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <v>10610694</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
+      <c r="B5" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>201</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>10610694</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
+      <c r="B6" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>198</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>10610743</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
+      <c r="B7" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>198</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>10610743</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
+      <c r="B8" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>208</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>10630652</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
+      <c r="B9" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>201</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1899,4 +3344,91 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2016001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2">
+        <v>10610482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2016002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3">
+        <v>10610672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2016003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4">
+        <v>10610743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2016004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5">
+        <v>10630652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>